--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231831.8421458805</v>
+        <v>-234533.058797337</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>79.51149230610422</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>47.79732855677925</v>
+        <v>34.93635359337912</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.84819189841556</v>
+        <v>69.38325121739464</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.8330943322290454</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>69.53785826312695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154321</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863691</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>104.5986787095421</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951724</v>
+        <v>36.27346476951731</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713721</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>93.31259853606569</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>44.32753066407658</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643436</v>
+        <v>1.90523611264355</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>118.7685960664758</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>224.2528633172371</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>349.7888056987304</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>122.7756928485647</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,13 +1345,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9657095888479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>228.8217101999885</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>148.0894692379594</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.04039518888509</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1066916608414</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.62554568141259</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>184.5018925095683</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.4062378350049</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>80.67842139643659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>206.6447768750177</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>208.273682664129</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158729</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.75188085811982</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.81340893423601</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>255.2269336503891</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428129</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>191.311485584766</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E37" t="n">
-        <v>121.8000472740348</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180001</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>216.818035405159</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>168.480551467095</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4310,16 +4310,16 @@
         <v>820.2300801016544</v>
       </c>
       <c r="D2" t="n">
-        <v>820.2300801016544</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E2" t="n">
-        <v>820.2300801016544</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,13 +4355,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="V2" t="n">
         <v>820.2300801016544</v>
@@ -4410,7 +4410,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
         <v>338.874007230231</v>
@@ -4431,13 +4431,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>988.2395063574821</v>
+        <v>1019.566273952106</v>
       </c>
       <c r="T3" t="n">
-        <v>791.4304279889197</v>
+        <v>1019.566273952106</v>
       </c>
       <c r="U3" t="n">
         <v>791.4304279889197</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>659.6853352735295</v>
+        <v>834.0629408624944</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>763.978848723712</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>466.9722618134659</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4489,10 +4489,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.6853352735295</v>
+        <v>834.0629408624944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.5164977305346</v>
+        <v>1280.257933971748</v>
       </c>
       <c r="C5" t="n">
-        <v>808.5164977305346</v>
+        <v>911.2954170313367</v>
       </c>
       <c r="D5" t="n">
-        <v>808.5164977305346</v>
+        <v>911.2954170313367</v>
       </c>
       <c r="E5" t="n">
-        <v>738.2762368586892</v>
+        <v>525.5071644330925</v>
       </c>
       <c r="F5" t="n">
-        <v>731.3307361094858</v>
+        <v>518.561663683889</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797563</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523457</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523449</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275181</v>
+        <v>93.76641159275096</v>
       </c>
       <c r="K5" t="n">
-        <v>239.032598924557</v>
+        <v>239.0325989245555</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825647</v>
+        <v>456.1499114825626</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748877</v>
+        <v>729.4041931748854</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189414</v>
+        <v>1446.53548218941</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261729</v>
+        <v>1281.099443398242</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261729</v>
+        <v>1281.099443398242</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991614</v>
+        <v>1281.099443398242</v>
       </c>
       <c r="X5" t="n">
-        <v>808.5164977305346</v>
+        <v>1281.099443398242</v>
       </c>
       <c r="Y5" t="n">
-        <v>808.5164977305346</v>
+        <v>1281.099443398242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>496.3775515909052</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="C6" t="n">
-        <v>321.9245223097781</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="D6" t="n">
-        <v>172.9901126485269</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="E6" t="n">
-        <v>172.9901126485269</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="F6" t="n">
-        <v>172.9901126485269</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878734</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
         <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523449</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626393</v>
+        <v>49.44206107563423</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101442</v>
+        <v>159.6385680169446</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414966</v>
+        <v>354.1339118482966</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122431</v>
+        <v>600.4576725190425</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584466</v>
+        <v>867.7095350912648</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749985</v>
+        <v>1247.560385628542</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948673</v>
+        <v>1406.61333082723</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757977</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757977</v>
+        <v>1390.282497655819</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.442044309661</v>
+        <v>1194.377855207504</v>
       </c>
       <c r="U6" t="n">
-        <v>1334.442044309661</v>
+        <v>1194.377855207504</v>
       </c>
       <c r="V6" t="n">
-        <v>1334.442044309661</v>
+        <v>959.225746975761</v>
       </c>
       <c r="W6" t="n">
-        <v>1080.20468758146</v>
+        <v>864.970596939331</v>
       </c>
       <c r="X6" t="n">
-        <v>872.3531873759271</v>
+        <v>657.1190967337982</v>
       </c>
       <c r="Y6" t="n">
-        <v>664.5928886109732</v>
+        <v>449.3587979688443</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>932.5837928099202</v>
+        <v>492.1285574367512</v>
       </c>
       <c r="C7" t="n">
-        <v>763.6476098820133</v>
+        <v>492.1285574367512</v>
       </c>
       <c r="D7" t="n">
-        <v>613.5309704696775</v>
+        <v>342.0119180244154</v>
       </c>
       <c r="E7" t="n">
-        <v>465.6178768872844</v>
+        <v>297.2366345253482</v>
       </c>
       <c r="F7" t="n">
-        <v>318.727929389374</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274377</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274377</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709663</v>
+        <v>32.61949914709666</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523449</v>
       </c>
       <c r="K7" t="n">
-        <v>157.432275622327</v>
+        <v>157.4322756223267</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830395</v>
+        <v>375.138765583039</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388161</v>
+        <v>615.0688576388154</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974836</v>
+        <v>854.7285647974827</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495186</v>
+        <v>1009.535278371729</v>
       </c>
       <c r="U7" t="n">
-        <v>1234.200536495186</v>
+        <v>1009.535278371729</v>
       </c>
       <c r="V7" t="n">
-        <v>1234.200536495186</v>
+        <v>1009.535278371729</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.23225764016</v>
+        <v>720.1181083347685</v>
       </c>
       <c r="X7" t="n">
-        <v>1114.23225764016</v>
+        <v>492.1285574367512</v>
       </c>
       <c r="Y7" t="n">
-        <v>1114.23225764016</v>
+        <v>492.1285574367512</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2172.199996424343</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.237479483932</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>1444.971780877181</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1059.183528278937</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>648.1976234893293</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844851</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159568</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751767</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751036</v>
+        <v>491.0887683560069</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>322.1525854281</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>322.1525854281</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W10" t="n">
-        <v>305.8408313751036</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X10" t="n">
-        <v>305.8408313751036</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.8408313751036</v>
+        <v>672.7372331862466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.984271012043</v>
+        <v>1589.398948549461</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.021754071631</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="D11" t="n">
-        <v>1011.756055464881</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="E11" t="n">
-        <v>625.9678028666367</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>394.8347622605878</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.999350345381</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926741</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926741</v>
+        <v>3423.435421464159</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.95785658317</v>
+        <v>3092.372534120589</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.189201313056</v>
+        <v>2739.603878850474</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.723443051977</v>
+        <v>2366.138120589394</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.584111076165</v>
+        <v>1975.998788613583</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1933.239912720357</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052878</v>
+        <v>2203.147119213801</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.180957052878</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>691.3935293364668</v>
+        <v>691.3935293364669</v>
       </c>
       <c r="C13" t="n">
-        <v>522.4573464085599</v>
+        <v>522.4573464085601</v>
       </c>
       <c r="D13" t="n">
-        <v>372.3407069962241</v>
+        <v>372.3407069962243</v>
       </c>
       <c r="E13" t="n">
         <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
         <v>710.5788654344813</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2086.817115016661</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>2086.817115016661</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="T13" t="n">
-        <v>1865.925782451101</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="U13" t="n">
-        <v>1865.925782451101</v>
+        <v>1848.27127569226</v>
       </c>
       <c r="V13" t="n">
-        <v>1611.241294245214</v>
+        <v>1593.586787486373</v>
       </c>
       <c r="W13" t="n">
-        <v>1321.824124208254</v>
+        <v>1304.169617449412</v>
       </c>
       <c r="X13" t="n">
-        <v>1093.834573310237</v>
+        <v>1076.180066551395</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.0419941667066</v>
+        <v>873.0419941667067</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,22 +5291,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,16 +5440,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5504,40 +5504,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5546,13 +5546,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>866.463817499104</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908938</v>
@@ -5665,28 +5665,28 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2102.081746371524</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1813.006519715721</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1558.322031509834</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,28 +5750,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,19 +5908,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279802</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1546.699459748751</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1257.28228971179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138406</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6312,10 +6312,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121641</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6455,43 +6455,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2380.484892737598</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.630058392502</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.028593415444</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.953366759641</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.953366759641</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1399.536196722681</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824663</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811332</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,10 +6786,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400709</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121639</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121639</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270439</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703106</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400713</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277356</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
         <v>826.140538179774</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188005</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908936</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908936</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908936</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908936</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057735</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925704</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490403</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636983</v>
+        <v>34.43939438637008</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>105.5468419254487</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>159.1791953250083</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>72.45868194084841</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134883069376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>178.054335541723</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>102.8695332217276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.77291161016731</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17.47796169125343</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.6212754172153</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182114</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>101.6825818796739</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>56.99921249228336</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>205.8445769401544</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>45.49286644881028</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.131767663159307</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600925</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5618377758856786</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>30.95754073885505</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>34.39816980427111</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E37" t="n">
-        <v>24.63391537253435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228705</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.5874149221292145</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>307890.6636991061</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
@@ -26329,28 +26329,28 @@
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="K2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="L2" t="n">
-        <v>302679.9748837524</v>
-      </c>
       <c r="M2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
         <v>302679.9748837522</v>
@@ -26366,19 +26366,19 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657083</v>
+        <v>132804.2190657071</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929364</v>
+        <v>265413.0723929377</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.157354578</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417445</v>
+        <v>30877.42926417424</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049543</v>
+        <v>65018.34502049566</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273077</v>
+        <v>81897.40371273097</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947646</v>
+        <v>214511.7974947649</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
@@ -26427,34 +26427,34 @@
         <v>10451.66972713467</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667503</v>
+        <v>72593.65038667494</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738573</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685577.7860712154</v>
+        <v>-685577.7860712153</v>
       </c>
       <c r="C6" t="n">
-        <v>-112019.0032480418</v>
+        <v>-112019.0032480406</v>
       </c>
       <c r="D6" t="n">
-        <v>-189594.7282560162</v>
+        <v>-189594.7282560173</v>
       </c>
       <c r="E6" t="n">
-        <v>-134445.3455461992</v>
+        <v>-134666.4768601746</v>
       </c>
       <c r="F6" t="n">
-        <v>1692.088002634904</v>
+        <v>1657.350077199779</v>
       </c>
       <c r="G6" t="n">
-        <v>191000.3567730637</v>
+        <v>190965.6188476281</v>
       </c>
       <c r="H6" t="n">
-        <v>191000.3567730642</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="I6" t="n">
-        <v>191000.3567730638</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="J6" t="n">
-        <v>122001.20235395</v>
+        <v>121966.4644285143</v>
       </c>
       <c r="K6" t="n">
-        <v>160122.9275088895</v>
+        <v>160088.189583454</v>
       </c>
       <c r="L6" t="n">
-        <v>125982.0117525686</v>
+        <v>125947.2738271326</v>
       </c>
       <c r="M6" t="n">
-        <v>109102.9530603333</v>
+        <v>109068.2151348973</v>
       </c>
       <c r="N6" t="n">
-        <v>141160.7826410404</v>
+        <v>141126.0447156048</v>
       </c>
       <c r="O6" t="n">
-        <v>191000.3567730638</v>
+        <v>190965.6188476283</v>
       </c>
       <c r="P6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476282</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695757</v>
+        <v>717.3319511695748</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154321</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490089</v>
+        <v>969.2208239490099</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000975</v>
+        <v>103.2769374000966</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479634</v>
+        <v>216.7329409479644</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974119</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813926</v>
+        <v>119.973847813925</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846066</v>
+        <v>256.8971042846077</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.635991848971</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139258</v>
+        <v>119.973847813925</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846068</v>
+        <v>256.8971042846077</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.635991848971</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813926</v>
+        <v>119.973847813925</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846066</v>
+        <v>256.8971042846077</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.635991848971</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>132.778223297119</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>95.47307296480844</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>99.35260685541952</v>
+        <v>112.2135818188196</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>142.3986292002123</v>
+        <v>97.86356988123319</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,7 +27591,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>381.9007473312515</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>312.3925118091348</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233778</v>
+        <v>28.73126316233881</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863676</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>31.20189803039811</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713834</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>158.3823846248539</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>102.1064319824926</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>167.7544022701152</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.2948394557169</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>36.44913295732317</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>23.65826979800451</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24.55728874774309</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.871143240350648e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365127</v>
+        <v>2.883746537365123</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579061</v>
+        <v>29.53316922579057</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756936</v>
+        <v>244.7543826756933</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023595</v>
+        <v>366.823373602359</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952476</v>
+        <v>455.076831695247</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791146</v>
+        <v>506.360659179114</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284033</v>
+        <v>514.5541040284027</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974788</v>
+        <v>485.8788493974782</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562772</v>
+        <v>414.6863567562767</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868885</v>
+        <v>311.4121838868881</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277623</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020788</v>
+        <v>65.7133742202078</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892101</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189784</v>
+        <v>53.12316808189777</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453799</v>
+        <v>249.1510419453796</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438665</v>
+        <v>335.0143230438661</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874187</v>
+        <v>390.9459133874182</v>
       </c>
       <c r="N6" t="n">
-        <v>401.293088418912</v>
+        <v>401.2930884189115</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348677</v>
+        <v>367.1047769348672</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190659</v>
+        <v>294.6339480190656</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.954991573956</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392941</v>
+        <v>95.7976518939293</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399199</v>
+        <v>28.65944163399196</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989056</v>
+        <v>6.219132670989048</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572061</v>
+        <v>38.90055892572056</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402934</v>
+        <v>91.45394400402922</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154545</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773277</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022537</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669601</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565115</v>
+        <v>58.16268574565108</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101764</v>
+        <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060663</v>
+        <v>5.526983886060656</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864688</v>
+        <v>0.07055724109864678</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>415.2297863570138</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.7767623746041</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900733</v>
+        <v>63.70847814900702</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573789</v>
+        <v>146.7335225573785</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252603</v>
+        <v>219.3104167252598</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518419</v>
+        <v>276.0144259518413</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318124</v>
+        <v>285.1410404318117</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757921</v>
+        <v>255.7806379757915</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010076</v>
+        <v>183.4533610010071</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243901</v>
+        <v>89.10649401243862</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600047</v>
+        <v>18.9364069195957</v>
       </c>
       <c r="K6" t="n">
-        <v>216.8564448964696</v>
+        <v>111.3096029710206</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639923</v>
+        <v>196.4599432639919</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654004</v>
+        <v>248.8118794653999</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355787</v>
+        <v>269.9513763355782</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904232</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047357</v>
+        <v>160.6595406047354</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793448</v>
+        <v>129.4318994287826</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148611</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391683</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814823</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809998</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491155</v>
+        <v>22.15508137491142</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317917</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>272.6335419125694</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.7949882885825</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
